--- a/test/src/SceneConfig.xlsx
+++ b/test/src/SceneConfig.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149D5FC4-8313-405B-814B-70E181CD6083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9B4901-CA83-459C-B344-6F062C848239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="client.meta" sheetId="3" r:id="rId2"/>
+    <sheet name="server.meta" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +132,18 @@
   </si>
   <si>
     <t>[{"wjf":32}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#sheet -SceneConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold=outingBaseGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#sheet SceneConfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -654,16 +667,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780F5BB2-69E9-417D-8920-885EE85C0927}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>